--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifnk-Ifnar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ifnk</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ifnk</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2591346666666667</v>
+        <v>0.6781833333333335</v>
       </c>
       <c r="H2">
-        <v>0.777404</v>
+        <v>2.03455</v>
       </c>
       <c r="I2">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.374092</v>
+        <v>21.602164</v>
       </c>
       <c r="N2">
-        <v>55.122276</v>
+        <v>64.80649199999999</v>
       </c>
       <c r="O2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="P2">
-        <v>0.247467044582445</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="Q2">
-        <v>4.761364205722667</v>
+        <v>14.65022758873334</v>
       </c>
       <c r="R2">
-        <v>42.852277851504</v>
+        <v>131.8520482986</v>
       </c>
       <c r="S2">
-        <v>0.05270053232185831</v>
+        <v>0.2504461301095448</v>
       </c>
       <c r="T2">
-        <v>0.05270053232185831</v>
+        <v>0.2504461301095448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2591346666666667</v>
+        <v>0.6781833333333335</v>
       </c>
       <c r="H3">
-        <v>0.777404</v>
+        <v>2.03455</v>
       </c>
       <c r="I3">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>61.56292500000001</v>
       </c>
       <c r="O3">
-        <v>0.2763818225793275</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="P3">
-        <v>0.2763818225793274</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="Q3">
-        <v>5.317696016300001</v>
+        <v>13.91698322875001</v>
       </c>
       <c r="R3">
-        <v>47.85926414670001</v>
+        <v>125.25284905875</v>
       </c>
       <c r="S3">
-        <v>0.05885821766123445</v>
+        <v>0.2379112932771326</v>
       </c>
       <c r="T3">
-        <v>0.05885821766123443</v>
+        <v>0.2379112932771326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2591346666666667</v>
+        <v>0.6781833333333335</v>
       </c>
       <c r="H4">
-        <v>0.777404</v>
+        <v>2.03455</v>
       </c>
       <c r="I4">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.177119333333334</v>
+        <v>11.57857933333334</v>
       </c>
       <c r="N4">
-        <v>21.531358</v>
+        <v>34.735738</v>
       </c>
       <c r="O4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806403</v>
       </c>
       <c r="P4">
-        <v>0.09666330777246179</v>
+        <v>0.1342370322806404</v>
       </c>
       <c r="Q4">
-        <v>1.859840426070222</v>
+        <v>7.852399527544447</v>
       </c>
       <c r="R4">
-        <v>16.738563834632</v>
+        <v>70.67159574790001</v>
       </c>
       <c r="S4">
-        <v>0.02058539869094851</v>
+        <v>0.1342370322806403</v>
       </c>
       <c r="T4">
-        <v>0.02058539869094851</v>
+        <v>0.1342370322806404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2591346666666667</v>
+        <v>0.6781833333333335</v>
       </c>
       <c r="H5">
-        <v>0.777404</v>
+        <v>2.03455</v>
       </c>
       <c r="I5">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.2129598000039995</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,524 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.17645566666667</v>
+        <v>32.55301433333333</v>
       </c>
       <c r="N5">
-        <v>84.52936700000001</v>
+        <v>97.659043</v>
       </c>
       <c r="O5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326823</v>
       </c>
       <c r="P5">
-        <v>0.3794878250657657</v>
+        <v>0.3774055443326824</v>
       </c>
       <c r="Q5">
-        <v>7.301496447029779</v>
+        <v>22.07691177062778</v>
       </c>
       <c r="R5">
-        <v>65.71346802326801</v>
+        <v>198.69220593565</v>
       </c>
       <c r="S5">
-        <v>0.0808156513299582</v>
+        <v>0.3774055443326823</v>
       </c>
       <c r="T5">
-        <v>0.0808156513299582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.547355</v>
-      </c>
-      <c r="H6">
-        <v>1.642065</v>
-      </c>
-      <c r="I6">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="J6">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>18.374092</v>
-      </c>
-      <c r="N6">
-        <v>55.122276</v>
-      </c>
-      <c r="O6">
-        <v>0.247467044582445</v>
-      </c>
-      <c r="P6">
-        <v>0.247467044582445</v>
-      </c>
-      <c r="Q6">
-        <v>10.05715112666</v>
-      </c>
-      <c r="R6">
-        <v>90.51436013994001</v>
-      </c>
-      <c r="S6">
-        <v>0.11131625204796</v>
-      </c>
-      <c r="T6">
-        <v>0.1113162520479599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.547355</v>
-      </c>
-      <c r="H7">
-        <v>1.642065</v>
-      </c>
-      <c r="I7">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="J7">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>20.520975</v>
-      </c>
-      <c r="N7">
-        <v>61.56292500000001</v>
-      </c>
-      <c r="O7">
-        <v>0.2763818225793275</v>
-      </c>
-      <c r="P7">
-        <v>0.2763818225793274</v>
-      </c>
-      <c r="Q7">
-        <v>11.232258271125</v>
-      </c>
-      <c r="R7">
-        <v>101.090324440125</v>
-      </c>
-      <c r="S7">
-        <v>0.1243227706364965</v>
-      </c>
-      <c r="T7">
-        <v>0.1243227706364965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.547355</v>
-      </c>
-      <c r="H8">
-        <v>1.642065</v>
-      </c>
-      <c r="I8">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="J8">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>7.177119333333334</v>
-      </c>
-      <c r="N8">
-        <v>21.531358</v>
-      </c>
-      <c r="O8">
-        <v>0.09666330777246179</v>
-      </c>
-      <c r="P8">
-        <v>0.09666330777246179</v>
-      </c>
-      <c r="Q8">
-        <v>3.928432152696667</v>
-      </c>
-      <c r="R8">
-        <v>35.35588937427001</v>
-      </c>
-      <c r="S8">
-        <v>0.04348133364563646</v>
-      </c>
-      <c r="T8">
-        <v>0.04348133364563646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.547355</v>
-      </c>
-      <c r="H9">
-        <v>1.642065</v>
-      </c>
-      <c r="I9">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="J9">
-        <v>0.4498225298475019</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>28.17645566666667</v>
-      </c>
-      <c r="N9">
-        <v>84.52936700000001</v>
-      </c>
-      <c r="O9">
-        <v>0.3794878250657657</v>
-      </c>
-      <c r="P9">
-        <v>0.3794878250657657</v>
-      </c>
-      <c r="Q9">
-        <v>15.42252389142834</v>
-      </c>
-      <c r="R9">
-        <v>138.802715022855</v>
-      </c>
-      <c r="S9">
-        <v>0.170702173517409</v>
-      </c>
-      <c r="T9">
-        <v>0.170702173517409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.4103346666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.231004</v>
-      </c>
-      <c r="I10">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="J10">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>18.374092</v>
-      </c>
-      <c r="N10">
-        <v>55.122276</v>
-      </c>
-      <c r="O10">
-        <v>0.247467044582445</v>
-      </c>
-      <c r="P10">
-        <v>0.247467044582445</v>
-      </c>
-      <c r="Q10">
-        <v>7.539526916122667</v>
-      </c>
-      <c r="R10">
-        <v>67.855742245104</v>
-      </c>
-      <c r="S10">
-        <v>0.08345026021262672</v>
-      </c>
-      <c r="T10">
-        <v>0.08345026021262671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.4103346666666667</v>
-      </c>
-      <c r="H11">
-        <v>1.231004</v>
-      </c>
-      <c r="I11">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="J11">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>20.520975</v>
-      </c>
-      <c r="N11">
-        <v>61.56292500000001</v>
-      </c>
-      <c r="O11">
-        <v>0.2763818225793275</v>
-      </c>
-      <c r="P11">
-        <v>0.2763818225793274</v>
-      </c>
-      <c r="Q11">
-        <v>8.420467436300001</v>
-      </c>
-      <c r="R11">
-        <v>75.78420692670001</v>
-      </c>
-      <c r="S11">
-        <v>0.09320083428159649</v>
-      </c>
-      <c r="T11">
-        <v>0.09320083428159648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.4103346666666667</v>
-      </c>
-      <c r="H12">
-        <v>1.231004</v>
-      </c>
-      <c r="I12">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="J12">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>7.177119333333334</v>
-      </c>
-      <c r="N12">
-        <v>21.531358</v>
-      </c>
-      <c r="O12">
-        <v>0.09666330777246179</v>
-      </c>
-      <c r="P12">
-        <v>0.09666330777246179</v>
-      </c>
-      <c r="Q12">
-        <v>2.945020869270222</v>
-      </c>
-      <c r="R12">
-        <v>26.505187823432</v>
-      </c>
-      <c r="S12">
-        <v>0.03259657543587682</v>
-      </c>
-      <c r="T12">
-        <v>0.03259657543587682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.4103346666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.231004</v>
-      </c>
-      <c r="I13">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="J13">
-        <v>0.3372176701484985</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>28.17645566666667</v>
-      </c>
-      <c r="N13">
-        <v>84.52936700000001</v>
-      </c>
-      <c r="O13">
-        <v>0.3794878250657657</v>
-      </c>
-      <c r="P13">
-        <v>0.3794878250657657</v>
-      </c>
-      <c r="Q13">
-        <v>11.56177654382978</v>
-      </c>
-      <c r="R13">
-        <v>104.055988894468</v>
-      </c>
-      <c r="S13">
-        <v>0.1279700002183985</v>
-      </c>
-      <c r="T13">
-        <v>0.1279700002183985</v>
+        <v>0.3774055443326824</v>
       </c>
     </row>
   </sheetData>
